--- a/biology/Botanique/Helanthium_tenellum/Helanthium_tenellum.xlsx
+++ b/biology/Botanique/Helanthium_tenellum/Helanthium_tenellum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helanthium tenellum est une plante aquatique tropicale de la famille des Alismataceae, également appelée Echinodorus tenellus. 
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Helanthium tenellum est présente dans toute la partie orientale des États-Unis (du Texas à la Floride et du Michigan au Massachusetts), dans le sud du Mexique, en Amérique centrale, dans les Grandes Antilles et dans la partie orientale de l'Amérique du Sud (du Guyana à l'Argentine).
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Protection et menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est considérée en danger dans les états américains du Connecticut[2], de l'Illinois, de l'Indiana, du Kentucky, et du Michigan[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est considérée en danger dans les états américains du Connecticut, de l'Illinois, de l'Indiana, du Kentucky, et du Michigan
 .
 </t>
         </is>
